--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R01 吹膜工序生产指令.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R01 吹膜工序生产指令.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QMS File-20160301\SOP-MFG-3 生产岗位记录\301. 吹膜岗位记录表20160301\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\301. 吹膜岗位记录表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,46 +21,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="H5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-100---1
-80---2
-60---3
-120--4
-200--5</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <r>
       <rPr>
@@ -885,6 +847,103 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NO.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>E-PEF-2017007-01-001</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中间的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>01--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示批记录封面中《生产指令》归属的序号</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最后的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>001--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示本批生产指令页数的流水号</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-PEF-2017007  表示生产指令号，唯一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1014,17 +1073,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1401,7 +1460,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1552,6 +1611,126 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1572,117 +1751,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1987,24 +2055,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.375" style="5" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="4.625" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="2.375" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="4" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="15.5" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.625" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="2.375" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="4" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="15.5" style="5" customWidth="1"/>
     <col min="7" max="7" width="11.375" style="5" customWidth="1"/>
     <col min="8" max="8" width="16.625" style="5" customWidth="1"/>
     <col min="9" max="9" width="14.125" style="5" customWidth="1"/>
@@ -2038,33 +2106,33 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="33.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="1:16" ht="28.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="88"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54"/>
       <c r="I3" s="49" t="s">
         <v>39</v>
       </c>
@@ -2078,18 +2146,18 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="28.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="92"/>
-      <c r="H4" s="93"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
       <c r="I4" s="46" t="s">
         <v>38</v>
       </c>
@@ -2102,12 +2170,12 @@
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="72"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="7" t="s">
         <v>3</v>
       </c>
@@ -2126,10 +2194,10 @@
       <c r="K5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="73" t="s">
+      <c r="L5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="74"/>
+      <c r="M5" s="64"/>
       <c r="P5" s="5">
         <f>G14/2500</f>
         <v>0</v>
@@ -2286,12 +2354,12 @@
     </row>
     <row r="14" spans="1:16" s="30" customFormat="1" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26"/>
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
@@ -2305,172 +2373,211 @@
       <c r="A15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="81" t="s">
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="82"/>
+      <c r="G15" s="72"/>
       <c r="H15" s="32" t="s">
         <v>14</v>
       </c>
       <c r="I15" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="81" t="s">
+      <c r="J15" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="82"/>
-      <c r="L15" s="83" t="s">
+      <c r="K15" s="72"/>
+      <c r="L15" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="84"/>
+      <c r="M15" s="74"/>
     </row>
     <row r="16" spans="1:16" s="30" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="78"/>
       <c r="H16" s="34"/>
       <c r="I16" s="35"/>
       <c r="J16" s="36"/>
       <c r="K16" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="61"/>
-      <c r="M16" s="62"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="80"/>
     </row>
     <row r="17" spans="1:13" s="30" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="57"/>
-      <c r="B17" s="58" t="s">
+      <c r="A17" s="75"/>
+      <c r="B17" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="60"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="78"/>
       <c r="H17" s="38"/>
       <c r="I17" s="35"/>
       <c r="J17" s="36"/>
       <c r="K17" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="63"/>
-      <c r="M17" s="64"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" s="30" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="57"/>
-      <c r="B18" s="67" t="s">
+      <c r="A18" s="75"/>
+      <c r="B18" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
       <c r="I18" s="39"/>
       <c r="J18" s="39"/>
       <c r="K18" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="63"/>
-      <c r="M18" s="64"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="82"/>
     </row>
     <row r="19" spans="1:13" s="21" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="68" t="s">
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
       <c r="I19" s="39"/>
       <c r="J19" s="39"/>
       <c r="K19" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="63"/>
-      <c r="M19" s="64"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="82"/>
     </row>
     <row r="20" spans="1:13" s="21" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="57"/>
-      <c r="B20" s="69" t="s">
+      <c r="A20" s="75"/>
+      <c r="B20" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="70" t="s">
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
       <c r="I20" s="40"/>
       <c r="J20" s="40"/>
       <c r="K20" s="41"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="66"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="84"/>
     </row>
     <row r="21" spans="1:13" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="52"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="92"/>
     </row>
     <row r="22" spans="1:13" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55" t="s">
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="54" t="s">
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="56"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="96"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L24" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" s="89"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L26" s="50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L27" s="50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L28" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L29" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="B21:M21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:E4"/>
@@ -2483,22 +2590,10 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="L15:M15"/>
-    <mergeCell ref="B21:M21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:M22"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="L16:M20"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2507,6 +2602,5 @@
   <headerFooter>
     <oddFooter>第 &amp;P 页，共 &amp;N 页</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R01 吹膜工序生产指令.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R01 吹膜工序生产指令.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\301. 吹膜岗位记录表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="555" yWindow="75" windowWidth="17910" windowHeight="6810"/>
   </bookViews>
@@ -17,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'01-吹膜生产指令'!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <r>
       <rPr>
@@ -850,113 +845,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>NO.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>E-PEF-2017007-01-001</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中间的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>01--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示批记录封面中《生产指令》归属的序号</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最后的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>001--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示本批生产指令页数的流水号</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>E-PEF-2017007  表示生产指令号，唯一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则：</t>
+    <t>s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1072,19 +974,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1460,7 +1349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1611,9 +1500,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1724,12 +1610,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1812,7 +1692,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1844,10 +1724,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1879,7 +1758,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2055,24 +1933,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="8.375" style="5" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="4.625" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="2.375" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="4" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="15.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="1.875" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="1.5" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="4" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="15.5" style="5" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="11.375" style="5" customWidth="1"/>
     <col min="8" max="8" width="16.625" style="5" customWidth="1"/>
     <col min="9" max="9" width="14.125" style="5" customWidth="1"/>
@@ -2086,7 +1964,7 @@
     <col min="18" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="16.7" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -2105,34 +1983,34 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="33.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:16" ht="33.200000000000003" customHeight="1" thickBot="1">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
     </row>
-    <row r="3" spans="1:16" ht="28.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:16" ht="28.7" customHeight="1">
+      <c r="A3" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
       <c r="I3" s="49" t="s">
         <v>39</v>
       </c>
@@ -2145,19 +2023,19 @@
         <v>13250</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="28.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+    <row r="4" spans="1:16" ht="28.7" customHeight="1" thickBot="1">
+      <c r="A4" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="59"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
       <c r="I4" s="46" t="s">
         <v>38</v>
       </c>
@@ -2166,16 +2044,16 @@
       <c r="L4" s="44"/>
       <c r="M4" s="45"/>
     </row>
-    <row r="5" spans="1:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="7" t="s">
         <v>3</v>
       </c>
@@ -2194,16 +2072,16 @@
       <c r="K5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="64"/>
+      <c r="M5" s="63"/>
       <c r="P5" s="5">
         <f>G14/2500</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="21" customFormat="1" ht="19.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="21" customFormat="1" ht="19.350000000000001" hidden="1" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -2218,7 +2096,7 @@
       <c r="L6" s="19"/>
       <c r="M6" s="20"/>
     </row>
-    <row r="7" spans="1:16" s="21" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="21" customFormat="1" ht="17.45" customHeight="1">
       <c r="A7" s="12">
         <v>1</v>
       </c>
@@ -2235,7 +2113,7 @@
       <c r="L7" s="19"/>
       <c r="M7" s="20"/>
     </row>
-    <row r="8" spans="1:16" s="21" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="21" customFormat="1" ht="17.45" customHeight="1">
       <c r="A8" s="12">
         <v>2</v>
       </c>
@@ -2243,7 +2121,9 @@
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
+      <c r="F8" s="25" t="s">
+        <v>41</v>
+      </c>
       <c r="G8" s="16"/>
       <c r="H8" s="14"/>
       <c r="I8" s="17"/>
@@ -2252,7 +2132,7 @@
       <c r="L8" s="19"/>
       <c r="M8" s="20"/>
     </row>
-    <row r="9" spans="1:16" s="21" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" s="21" customFormat="1" ht="17.45" customHeight="1">
       <c r="A9" s="12">
         <v>3</v>
       </c>
@@ -2272,7 +2152,7 @@
         <v>23400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="21" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" s="21" customFormat="1" ht="17.45" customHeight="1">
       <c r="A10" s="12">
         <v>4</v>
       </c>
@@ -2292,7 +2172,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="21" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" s="21" customFormat="1" ht="17.45" customHeight="1">
       <c r="A11" s="12">
         <v>5</v>
       </c>
@@ -2312,7 +2192,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="21" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" s="21" customFormat="1" ht="17.45" customHeight="1">
       <c r="A12" s="12">
         <v>6</v>
       </c>
@@ -2332,7 +2212,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="21" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" s="21" customFormat="1" ht="17.45" customHeight="1">
       <c r="A13" s="12">
         <v>7</v>
       </c>
@@ -2352,14 +2232,14 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="30" customFormat="1" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" s="30" customFormat="1" ht="19.350000000000001" customHeight="1" thickBot="1">
       <c r="A14" s="26"/>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
@@ -2369,203 +2249,176 @@
       <c r="L14" s="28"/>
       <c r="M14" s="29"/>
     </row>
-    <row r="15" spans="1:16" s="30" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" s="30" customFormat="1" ht="19.350000000000001" customHeight="1">
       <c r="A15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="71" t="s">
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="72"/>
+      <c r="G15" s="71"/>
       <c r="H15" s="32" t="s">
         <v>14</v>
       </c>
       <c r="I15" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="71" t="s">
+      <c r="J15" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="72"/>
-      <c r="L15" s="73" t="s">
+      <c r="K15" s="71"/>
+      <c r="L15" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="74"/>
+      <c r="M15" s="73"/>
     </row>
-    <row r="16" spans="1:16" s="30" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="75" t="s">
+    <row r="16" spans="1:16" s="30" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A16" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="78"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="77"/>
       <c r="H16" s="34"/>
       <c r="I16" s="35"/>
       <c r="J16" s="36"/>
       <c r="K16" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="79"/>
-      <c r="M16" s="80"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="79"/>
     </row>
-    <row r="17" spans="1:13" s="30" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="75"/>
-      <c r="B17" s="76" t="s">
+    <row r="17" spans="1:13" s="30" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A17" s="74"/>
+      <c r="B17" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="78"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="77"/>
       <c r="H17" s="38"/>
       <c r="I17" s="35"/>
       <c r="J17" s="36"/>
       <c r="K17" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="81"/>
-      <c r="M17" s="82"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
     </row>
-    <row r="18" spans="1:13" s="30" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="75"/>
-      <c r="B18" s="85" t="s">
+    <row r="18" spans="1:13" s="30" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A18" s="74"/>
+      <c r="B18" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
       <c r="I18" s="39"/>
       <c r="J18" s="39"/>
       <c r="K18" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="81"/>
-      <c r="M18" s="82"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
     </row>
-    <row r="19" spans="1:13" s="21" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="75" t="s">
+    <row r="19" spans="1:13" s="21" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A19" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="86" t="s">
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
       <c r="I19" s="39"/>
       <c r="J19" s="39"/>
       <c r="K19" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="81"/>
-      <c r="M19" s="82"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
     </row>
-    <row r="20" spans="1:13" s="21" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="75"/>
-      <c r="B20" s="87" t="s">
+    <row r="20" spans="1:13" s="21" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A20" s="74"/>
+      <c r="B20" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="60" t="s">
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
       <c r="I20" s="40"/>
       <c r="J20" s="40"/>
       <c r="K20" s="41"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="84"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="83"/>
     </row>
-    <row r="21" spans="1:13" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="19.350000000000001" customHeight="1" thickBot="1">
       <c r="A21" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="89"/>
     </row>
-    <row r="22" spans="1:13" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="93" t="s">
+    <row r="22" spans="1:13" ht="60.75" customHeight="1" thickBot="1">
+      <c r="A22" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="95" t="s">
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="94" t="s">
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="96"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="L24" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="M24" s="89"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="L26" s="50" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="L27" s="50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="L28" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="L29" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="93"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="L24:M24"/>
+  <mergeCells count="28">
     <mergeCell ref="B21:M21"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="F22:H22"/>

--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R01 吹膜工序生产指令.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R01 吹膜工序生产指令.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuyang\Documents\GitHub\mitcpro\mySystem\mySystem\xls\Extrusion\A\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="555" yWindow="75" windowWidth="17910" windowHeight="6810"/>
   </bookViews>
@@ -10,14 +15,14 @@
     <sheet name="01-吹膜生产指令" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'01-吹膜生产指令'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'01-吹膜生产指令'!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <r>
       <rPr>
@@ -842,17 +847,13 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -1500,6 +1501,48 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1572,18 +1615,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1601,36 +1632,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1650,7 +1651,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1692,7 +1693,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1724,9 +1725,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1758,6 +1760,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1933,32 +1936,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="1.875" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="1.5" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="8.3984375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="1.86328125" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="1.46484375" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="4" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="15.5" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16.625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="14.125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.25" style="5" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="5" customWidth="1"/>
-    <col min="12" max="12" width="12.75" style="5" customWidth="1"/>
-    <col min="13" max="13" width="10.125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="3.625" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="15.46484375" style="5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.3984375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16.59765625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="14.1328125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.265625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="12.46484375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="12.73046875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="10.1328125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="3.59765625" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="15" max="16" width="0" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="9" style="5" collapsed="1"/>
     <col min="18" max="16384" width="9" style="5"/>
@@ -1984,33 +1987,33 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="33.200000000000003" customHeight="1" thickBot="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
     </row>
     <row r="3" spans="1:16" ht="28.7" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
       <c r="I3" s="49" t="s">
         <v>39</v>
       </c>
@@ -2024,18 +2027,18 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="28.7" customHeight="1" thickBot="1">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
       <c r="I4" s="46" t="s">
         <v>38</v>
       </c>
@@ -2048,12 +2051,12 @@
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="75"/>
       <c r="F5" s="7" t="s">
         <v>3</v>
       </c>
@@ -2072,12 +2075,12 @@
       <c r="K5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="62" t="s">
+      <c r="L5" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="63"/>
+      <c r="M5" s="77"/>
       <c r="P5" s="5">
-        <f>G14/2500</f>
+        <f>G8/2500</f>
         <v>0</v>
       </c>
     </row>
@@ -2113,340 +2116,221 @@
       <c r="L7" s="19"/>
       <c r="M7" s="20"/>
     </row>
-    <row r="8" spans="1:16" s="21" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A8" s="12">
-        <v>2</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="20"/>
+    <row r="8" spans="1:16" s="30" customFormat="1" ht="19.350000000000001" customHeight="1" thickBot="1">
+      <c r="A8" s="26"/>
+      <c r="B8" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:16" s="21" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A9" s="12">
-        <v>3</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20"/>
-      <c r="P9" s="25">
-        <v>23400</v>
-      </c>
+    <row r="9" spans="1:16" s="30" customFormat="1" ht="19.350000000000001" customHeight="1">
+      <c r="A9" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="85"/>
+      <c r="H9" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="85"/>
+      <c r="L9" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="87"/>
     </row>
-    <row r="10" spans="1:16" s="21" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A10" s="12">
-        <v>4</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-      <c r="P10" s="25">
-        <v>25000</v>
-      </c>
+    <row r="10" spans="1:16" s="30" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A10" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="88"/>
+      <c r="M10" s="89"/>
     </row>
-    <row r="11" spans="1:16" s="21" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A11" s="12">
-        <v>5</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20"/>
-      <c r="P11" s="25">
-        <v>26000</v>
-      </c>
+    <row r="11" spans="1:16" s="30" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A11" s="62"/>
+      <c r="B11" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="90"/>
+      <c r="M11" s="91"/>
     </row>
-    <row r="12" spans="1:16" s="21" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A12" s="12">
-        <v>6</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="20"/>
-      <c r="P12" s="25">
-        <v>10000</v>
-      </c>
+    <row r="12" spans="1:16" s="30" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A12" s="62"/>
+      <c r="B12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="90"/>
+      <c r="M12" s="91"/>
     </row>
-    <row r="13" spans="1:16" s="21" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A13" s="12">
-        <v>7</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
-      <c r="P13" s="25">
-        <v>36000</v>
-      </c>
+    <row r="13" spans="1:16" s="21" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A13" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="90"/>
+      <c r="M13" s="91"/>
     </row>
-    <row r="14" spans="1:16" s="30" customFormat="1" ht="19.350000000000001" customHeight="1" thickBot="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="29"/>
+    <row r="14" spans="1:16" s="21" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A14" s="62"/>
+      <c r="B14" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="93"/>
     </row>
-    <row r="15" spans="1:16" s="30" customFormat="1" ht="19.350000000000001" customHeight="1">
-      <c r="A15" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="71"/>
-      <c r="H15" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="71"/>
-      <c r="L15" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="73"/>
+    <row r="15" spans="1:16" ht="19.350000000000001" customHeight="1" thickBot="1">
+      <c r="A15" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="52"/>
     </row>
-    <row r="16" spans="1:16" s="30" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A16" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="78"/>
-      <c r="M16" s="79"/>
-    </row>
-    <row r="17" spans="1:13" s="30" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A17" s="74"/>
-      <c r="B17" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
-    </row>
-    <row r="18" spans="1:13" s="30" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A18" s="74"/>
-      <c r="B18" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
-    </row>
-    <row r="19" spans="1:13" s="21" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A19" s="74" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="84" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="85" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
-    </row>
-    <row r="20" spans="1:13" s="21" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A20" s="74"/>
-      <c r="B20" s="86" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="83"/>
-    </row>
-    <row r="21" spans="1:13" ht="19.350000000000001" customHeight="1" thickBot="1">
-      <c r="A21" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:13" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A22" s="90" t="s">
+    <row r="16" spans="1:16" ht="60.75" customHeight="1" thickBot="1">
+      <c r="A16" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="92" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="91" t="s">
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="93"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B21:M21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B20:E20"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F14:H14"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="L10:M14"/>
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="L16:M20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R01 吹膜工序生产指令.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R01 吹膜工序生产指令.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuyang\Documents\GitHub\mitcpro\mySystem\mySystem\xls\Extrusion\A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/A/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FB2607CC-EB45-4543-BCA1-554BD0C1B291}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="75" windowWidth="17910" windowHeight="6810"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="27980" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-吹膜生产指令" sheetId="1" r:id="rId1"/>
@@ -853,17 +854,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="166" formatCode="0_ "/>
   </numFmts>
   <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -877,7 +878,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1375,16 +1376,16 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1399,16 +1400,16 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1432,10 +1433,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1468,7 +1469,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1483,10 +1484,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1501,6 +1502,108 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1522,120 +1625,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1651,7 +1652,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1726,6 +1727,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1761,6 +1779,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1936,7 +1971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -1946,28 +1981,28 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="8.3984375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="1.86328125" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="1.46484375" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="4" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="15.46484375" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.3984375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16.59765625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="14.1328125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.265625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="12.46484375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="12.73046875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="10.1328125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="3.59765625" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="8.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="1.83203125" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="1.5" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="4" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="15.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="5" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="3.6640625" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="15" max="16" width="0" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="9" style="5" collapsed="1"/>
     <col min="18" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="16.7" customHeight="1">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="16.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1986,34 +2021,34 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="33.200000000000003" customHeight="1" thickBot="1">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:16" ht="33.25" customHeight="1" thickBot="1">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
     </row>
-    <row r="3" spans="1:16" ht="28.7" customHeight="1">
-      <c r="A3" s="65" t="s">
+    <row r="3" spans="1:16" ht="28.75" customHeight="1">
+      <c r="A3" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
       <c r="I3" s="49" t="s">
         <v>39</v>
       </c>
@@ -2026,19 +2061,19 @@
         <v>13250</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="28.7" customHeight="1" thickBot="1">
-      <c r="A4" s="68" t="s">
+    <row r="4" spans="1:16" ht="28.75" customHeight="1" thickBot="1">
+      <c r="A4" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
       <c r="I4" s="46" t="s">
         <v>38</v>
       </c>
@@ -2047,16 +2082,16 @@
       <c r="L4" s="44"/>
       <c r="M4" s="45"/>
     </row>
-    <row r="5" spans="1:16" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:16" ht="40" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="7" t="s">
         <v>3</v>
       </c>
@@ -2075,16 +2110,16 @@
       <c r="K5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="76" t="s">
+      <c r="L5" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="77"/>
+      <c r="M5" s="63"/>
       <c r="P5" s="5">
         <f>G8/2500</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="21" customFormat="1" ht="19.350000000000001" hidden="1" customHeight="1">
+    <row r="6" spans="1:16" s="21" customFormat="1" ht="19.25" hidden="1" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -2099,7 +2134,7 @@
       <c r="L6" s="19"/>
       <c r="M6" s="20"/>
     </row>
-    <row r="7" spans="1:16" s="21" customFormat="1" ht="17.45" customHeight="1">
+    <row r="7" spans="1:16" s="21" customFormat="1" ht="17.5" customHeight="1">
       <c r="A7" s="12">
         <v>1</v>
       </c>
@@ -2116,14 +2151,14 @@
       <c r="L7" s="19"/>
       <c r="M7" s="20"/>
     </row>
-    <row r="8" spans="1:16" s="30" customFormat="1" ht="19.350000000000001" customHeight="1" thickBot="1">
+    <row r="8" spans="1:16" s="30" customFormat="1" ht="19.25" customHeight="1" thickBot="1">
       <c r="A8" s="26"/>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
@@ -2133,176 +2168,188 @@
       <c r="L8" s="28"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:16" s="30" customFormat="1" ht="19.350000000000001" customHeight="1">
+    <row r="9" spans="1:16" s="30" customFormat="1" ht="19.25" customHeight="1">
       <c r="A9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84" t="s">
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="85"/>
+      <c r="G9" s="71"/>
       <c r="H9" s="32" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="84" t="s">
+      <c r="J9" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="85"/>
-      <c r="L9" s="86" t="s">
+      <c r="K9" s="71"/>
+      <c r="L9" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="87"/>
+      <c r="M9" s="73"/>
     </row>
-    <row r="10" spans="1:16" s="30" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A10" s="62" t="s">
+    <row r="10" spans="1:16" s="30" customFormat="1" ht="35" customHeight="1">
+      <c r="A10" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
       <c r="H10" s="34"/>
       <c r="I10" s="35"/>
       <c r="J10" s="36"/>
       <c r="K10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="88"/>
-      <c r="M10" s="89"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="79"/>
     </row>
-    <row r="11" spans="1:16" s="30" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A11" s="62"/>
-      <c r="B11" s="57" t="s">
+    <row r="11" spans="1:16" s="30" customFormat="1" ht="37" customHeight="1">
+      <c r="A11" s="74"/>
+      <c r="B11" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
       <c r="H11" s="38"/>
       <c r="I11" s="35"/>
       <c r="J11" s="36"/>
       <c r="K11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="90"/>
-      <c r="M11" s="91"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="81"/>
     </row>
-    <row r="12" spans="1:16" s="30" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A12" s="62"/>
-      <c r="B12" s="60" t="s">
+    <row r="12" spans="1:16" s="30" customFormat="1" ht="22" customHeight="1">
+      <c r="A12" s="74"/>
+      <c r="B12" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
       <c r="K12" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="90"/>
-      <c r="M12" s="91"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="81"/>
     </row>
-    <row r="13" spans="1:16" s="21" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A13" s="62" t="s">
+    <row r="13" spans="1:16" s="21" customFormat="1" ht="22" customHeight="1">
+      <c r="A13" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61" t="s">
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
       <c r="K13" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="90"/>
-      <c r="M13" s="91"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
     </row>
-    <row r="14" spans="1:16" s="21" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63" t="s">
+    <row r="14" spans="1:16" s="21" customFormat="1" ht="22" customHeight="1">
+      <c r="A14" s="74"/>
+      <c r="B14" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="73" t="s">
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
       <c r="K14" s="41"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="93"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="83"/>
     </row>
-    <row r="15" spans="1:16" ht="19.350000000000001" customHeight="1" thickBot="1">
+    <row r="15" spans="1:16" ht="19.25" customHeight="1" thickBot="1">
       <c r="A15" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="52"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="86"/>
     </row>
     <row r="16" spans="1:16" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="55" t="s">
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="54" t="s">
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="56"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:E4"/>
@@ -2319,18 +2366,6 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="L10:M14"/>
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R01 吹膜工序生产指令.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R01 吹膜工序生产指令.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FB2607CC-EB45-4543-BCA1-554BD0C1B291}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2BE591ED-8CC9-044C-82B0-E6561A4AB7A2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="460" windowWidth="27980" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1502,6 +1502,48 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1574,18 +1616,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1603,36 +1633,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1977,7 +1977,7 @@
   </sheetPr>
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1988,9 +1988,9 @@
     <col min="3" max="3" width="1.83203125" style="5" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="1.5" style="5" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="4" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="15.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="18" style="5" customWidth="1"/>
     <col min="9" max="9" width="14.1640625" style="5" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" style="5" customWidth="1"/>
     <col min="11" max="11" width="12.5" style="5" customWidth="1"/>
@@ -2022,33 +2022,33 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="33.25" customHeight="1" thickBot="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
     </row>
     <row r="3" spans="1:16" ht="28.75" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
       <c r="I3" s="49" t="s">
         <v>39</v>
       </c>
@@ -2062,18 +2062,18 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="28.75" customHeight="1" thickBot="1">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
       <c r="I4" s="46" t="s">
         <v>38</v>
       </c>
@@ -2086,12 +2086,12 @@
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="75"/>
       <c r="F5" s="7" t="s">
         <v>3</v>
       </c>
@@ -2110,10 +2110,10 @@
       <c r="K5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="62" t="s">
+      <c r="L5" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="63"/>
+      <c r="M5" s="77"/>
       <c r="P5" s="5">
         <f>G8/2500</f>
         <v>0</v>
@@ -2153,12 +2153,12 @@
     </row>
     <row r="8" spans="1:16" s="30" customFormat="1" ht="19.25" customHeight="1" thickBot="1">
       <c r="A8" s="26"/>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
@@ -2172,184 +2172,172 @@
       <c r="A9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70" t="s">
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="71"/>
+      <c r="G9" s="85"/>
       <c r="H9" s="32" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="70" t="s">
+      <c r="J9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="71"/>
-      <c r="L9" s="72" t="s">
+      <c r="K9" s="85"/>
+      <c r="L9" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="73"/>
+      <c r="M9" s="87"/>
     </row>
-    <row r="10" spans="1:16" s="30" customFormat="1" ht="35" customHeight="1">
-      <c r="A10" s="74" t="s">
+    <row r="10" spans="1:16" s="30" customFormat="1" ht="28" customHeight="1">
+      <c r="A10" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="34"/>
       <c r="I10" s="35"/>
       <c r="J10" s="36"/>
       <c r="K10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="78"/>
-      <c r="M10" s="79"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="89"/>
     </row>
-    <row r="11" spans="1:16" s="30" customFormat="1" ht="37" customHeight="1">
-      <c r="A11" s="74"/>
-      <c r="B11" s="75" t="s">
+    <row r="11" spans="1:16" s="30" customFormat="1" ht="30" customHeight="1">
+      <c r="A11" s="62"/>
+      <c r="B11" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="77"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="38"/>
       <c r="I11" s="35"/>
       <c r="J11" s="36"/>
       <c r="K11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="80"/>
-      <c r="M11" s="81"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="91"/>
     </row>
     <row r="12" spans="1:16" s="30" customFormat="1" ht="22" customHeight="1">
-      <c r="A12" s="74"/>
-      <c r="B12" s="91" t="s">
+      <c r="A12" s="62"/>
+      <c r="B12" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
       <c r="K12" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="80"/>
-      <c r="M12" s="81"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="91"/>
     </row>
     <row r="13" spans="1:16" s="21" customFormat="1" ht="22" customHeight="1">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="92" t="s">
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
       <c r="K13" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="91"/>
     </row>
     <row r="14" spans="1:16" s="21" customFormat="1" ht="22" customHeight="1">
-      <c r="A14" s="74"/>
-      <c r="B14" s="93" t="s">
+      <c r="A14" s="62"/>
+      <c r="B14" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="59" t="s">
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
       <c r="K14" s="41"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="83"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="93"/>
     </row>
     <row r="15" spans="1:16" ht="19.25" customHeight="1" thickBot="1">
       <c r="A15" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="86"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="52"/>
     </row>
     <row r="16" spans="1:16" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="88" t="s">
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="90"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:E14"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:E4"/>
@@ -2366,6 +2354,18 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="L10:M14"/>
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R01 吹膜工序生产指令.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R01 吹膜工序生产指令.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2BE591ED-8CC9-044C-82B0-E6561A4AB7A2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{968C0C97-FE81-AE40-88DD-9E7FA96044BE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="460" windowWidth="27980" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1502,6 +1502,108 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1523,116 +1625,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1990,7 +1990,7 @@
     <col min="5" max="5" width="4" style="5" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="12.83203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="18" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20" style="5" customWidth="1"/>
     <col min="9" max="9" width="14.1640625" style="5" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" style="5" customWidth="1"/>
     <col min="11" max="11" width="12.5" style="5" customWidth="1"/>
@@ -2022,33 +2022,33 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="33.25" customHeight="1" thickBot="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:16" ht="28.75" customHeight="1">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
       <c r="I3" s="49" t="s">
         <v>39</v>
       </c>
@@ -2062,18 +2062,18 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="28.75" customHeight="1" thickBot="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
       <c r="I4" s="46" t="s">
         <v>38</v>
       </c>
@@ -2086,12 +2086,12 @@
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="7" t="s">
         <v>3</v>
       </c>
@@ -2110,10 +2110,10 @@
       <c r="K5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="76" t="s">
+      <c r="L5" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="77"/>
+      <c r="M5" s="63"/>
       <c r="P5" s="5">
         <f>G8/2500</f>
         <v>0</v>
@@ -2153,12 +2153,12 @@
     </row>
     <row r="8" spans="1:16" s="30" customFormat="1" ht="19.25" customHeight="1" thickBot="1">
       <c r="A8" s="26"/>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
@@ -2172,172 +2172,184 @@
       <c r="A9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84" t="s">
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="85"/>
+      <c r="G9" s="71"/>
       <c r="H9" s="32" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="84" t="s">
+      <c r="J9" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="85"/>
-      <c r="L9" s="86" t="s">
+      <c r="K9" s="71"/>
+      <c r="L9" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="87"/>
+      <c r="M9" s="73"/>
     </row>
-    <row r="10" spans="1:16" s="30" customFormat="1" ht="28" customHeight="1">
-      <c r="A10" s="62" t="s">
+    <row r="10" spans="1:16" s="30" customFormat="1" ht="19" customHeight="1">
+      <c r="A10" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
       <c r="H10" s="34"/>
       <c r="I10" s="35"/>
       <c r="J10" s="36"/>
       <c r="K10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="88"/>
-      <c r="M10" s="89"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="79"/>
     </row>
-    <row r="11" spans="1:16" s="30" customFormat="1" ht="30" customHeight="1">
-      <c r="A11" s="62"/>
-      <c r="B11" s="57" t="s">
+    <row r="11" spans="1:16" s="30" customFormat="1" ht="17" customHeight="1">
+      <c r="A11" s="74"/>
+      <c r="B11" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
       <c r="H11" s="38"/>
       <c r="I11" s="35"/>
       <c r="J11" s="36"/>
       <c r="K11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="90"/>
-      <c r="M11" s="91"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="81"/>
     </row>
     <row r="12" spans="1:16" s="30" customFormat="1" ht="22" customHeight="1">
-      <c r="A12" s="62"/>
-      <c r="B12" s="60" t="s">
+      <c r="A12" s="74"/>
+      <c r="B12" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
       <c r="K12" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="90"/>
-      <c r="M12" s="91"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="81"/>
     </row>
     <row r="13" spans="1:16" s="21" customFormat="1" ht="22" customHeight="1">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61" t="s">
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
       <c r="K13" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="90"/>
-      <c r="M13" s="91"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
     </row>
     <row r="14" spans="1:16" s="21" customFormat="1" ht="22" customHeight="1">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63" t="s">
+      <c r="A14" s="74"/>
+      <c r="B14" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="73" t="s">
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
       <c r="K14" s="41"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="93"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="83"/>
     </row>
     <row r="15" spans="1:16" ht="19.25" customHeight="1" thickBot="1">
       <c r="A15" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="52"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="86"/>
     </row>
     <row r="16" spans="1:16" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="55" t="s">
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="54" t="s">
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="56"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:E4"/>
@@ -2354,18 +2366,6 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="L10:M14"/>
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R01 吹膜工序生产指令.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R01 吹膜工序生产指令.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{968C0C97-FE81-AE40-88DD-9E7FA96044BE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{99D0DC13-2DC3-3442-A170-F6AAFEA52856}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="460" windowWidth="27980" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1502,6 +1502,48 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1574,18 +1616,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1603,36 +1633,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2022,33 +2022,33 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="33.25" customHeight="1" thickBot="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
     </row>
     <row r="3" spans="1:16" ht="28.75" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
       <c r="I3" s="49" t="s">
         <v>39</v>
       </c>
@@ -2062,18 +2062,18 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="28.75" customHeight="1" thickBot="1">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
       <c r="I4" s="46" t="s">
         <v>38</v>
       </c>
@@ -2086,12 +2086,12 @@
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="75"/>
       <c r="F5" s="7" t="s">
         <v>3</v>
       </c>
@@ -2110,10 +2110,10 @@
       <c r="K5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="62" t="s">
+      <c r="L5" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="63"/>
+      <c r="M5" s="77"/>
       <c r="P5" s="5">
         <f>G8/2500</f>
         <v>0</v>
@@ -2153,12 +2153,12 @@
     </row>
     <row r="8" spans="1:16" s="30" customFormat="1" ht="19.25" customHeight="1" thickBot="1">
       <c r="A8" s="26"/>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
@@ -2172,184 +2172,172 @@
       <c r="A9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70" t="s">
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="71"/>
+      <c r="G9" s="85"/>
       <c r="H9" s="32" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="70" t="s">
+      <c r="J9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="71"/>
-      <c r="L9" s="72" t="s">
+      <c r="K9" s="85"/>
+      <c r="L9" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="73"/>
+      <c r="M9" s="87"/>
     </row>
-    <row r="10" spans="1:16" s="30" customFormat="1" ht="19" customHeight="1">
-      <c r="A10" s="74" t="s">
+    <row r="10" spans="1:16" s="30" customFormat="1" ht="24" customHeight="1">
+      <c r="A10" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="34"/>
       <c r="I10" s="35"/>
       <c r="J10" s="36"/>
       <c r="K10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="78"/>
-      <c r="M10" s="79"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="89"/>
     </row>
-    <row r="11" spans="1:16" s="30" customFormat="1" ht="17" customHeight="1">
-      <c r="A11" s="74"/>
-      <c r="B11" s="75" t="s">
+    <row r="11" spans="1:16" s="30" customFormat="1" ht="23" customHeight="1">
+      <c r="A11" s="62"/>
+      <c r="B11" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="77"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="38"/>
       <c r="I11" s="35"/>
       <c r="J11" s="36"/>
       <c r="K11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="80"/>
-      <c r="M11" s="81"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="91"/>
     </row>
     <row r="12" spans="1:16" s="30" customFormat="1" ht="22" customHeight="1">
-      <c r="A12" s="74"/>
-      <c r="B12" s="91" t="s">
+      <c r="A12" s="62"/>
+      <c r="B12" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
       <c r="K12" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="80"/>
-      <c r="M12" s="81"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="91"/>
     </row>
     <row r="13" spans="1:16" s="21" customFormat="1" ht="22" customHeight="1">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="92" t="s">
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
       <c r="K13" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="91"/>
     </row>
     <row r="14" spans="1:16" s="21" customFormat="1" ht="22" customHeight="1">
-      <c r="A14" s="74"/>
-      <c r="B14" s="93" t="s">
+      <c r="A14" s="62"/>
+      <c r="B14" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="59" t="s">
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
       <c r="K14" s="41"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="83"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="93"/>
     </row>
     <row r="15" spans="1:16" ht="19.25" customHeight="1" thickBot="1">
       <c r="A15" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="86"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="52"/>
     </row>
     <row r="16" spans="1:16" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="88" t="s">
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="90"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:E14"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:E4"/>
@@ -2366,6 +2354,18 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="L10:M14"/>
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R01 吹膜工序生产指令.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R01 吹膜工序生产指令.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{99D0DC13-2DC3-3442-A170-F6AAFEA52856}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CE2C9C9F-3A9F-D941-9999-6A0BC6357CB8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="460" windowWidth="27980" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1502,6 +1502,108 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1523,116 +1625,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1978,17 +1978,17 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F5" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="1.83203125" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="1.5" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="4" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="12.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="0.1640625" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="1" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="0.1640625" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="12.83203125" style="5" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="10.33203125" style="5" customWidth="1"/>
     <col min="8" max="8" width="20" style="5" customWidth="1"/>
     <col min="9" max="9" width="14.1640625" style="5" customWidth="1"/>
@@ -2022,33 +2022,33 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="33.25" customHeight="1" thickBot="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:16" ht="28.75" customHeight="1">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
       <c r="I3" s="49" t="s">
         <v>39</v>
       </c>
@@ -2062,18 +2062,18 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="28.75" customHeight="1" thickBot="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
       <c r="I4" s="46" t="s">
         <v>38</v>
       </c>
@@ -2086,12 +2086,12 @@
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="7" t="s">
         <v>3</v>
       </c>
@@ -2110,10 +2110,10 @@
       <c r="K5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="76" t="s">
+      <c r="L5" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="77"/>
+      <c r="M5" s="63"/>
       <c r="P5" s="5">
         <f>G8/2500</f>
         <v>0</v>
@@ -2153,12 +2153,12 @@
     </row>
     <row r="8" spans="1:16" s="30" customFormat="1" ht="19.25" customHeight="1" thickBot="1">
       <c r="A8" s="26"/>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
@@ -2172,172 +2172,184 @@
       <c r="A9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84" t="s">
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="85"/>
+      <c r="G9" s="71"/>
       <c r="H9" s="32" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="84" t="s">
+      <c r="J9" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="85"/>
-      <c r="L9" s="86" t="s">
+      <c r="K9" s="71"/>
+      <c r="L9" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="87"/>
+      <c r="M9" s="73"/>
     </row>
     <row r="10" spans="1:16" s="30" customFormat="1" ht="24" customHeight="1">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
       <c r="H10" s="34"/>
       <c r="I10" s="35"/>
       <c r="J10" s="36"/>
       <c r="K10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="88"/>
-      <c r="M10" s="89"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="79"/>
     </row>
     <row r="11" spans="1:16" s="30" customFormat="1" ht="23" customHeight="1">
-      <c r="A11" s="62"/>
-      <c r="B11" s="57" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
       <c r="H11" s="38"/>
       <c r="I11" s="35"/>
       <c r="J11" s="36"/>
       <c r="K11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="90"/>
-      <c r="M11" s="91"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="81"/>
     </row>
     <row r="12" spans="1:16" s="30" customFormat="1" ht="22" customHeight="1">
-      <c r="A12" s="62"/>
-      <c r="B12" s="60" t="s">
+      <c r="A12" s="74"/>
+      <c r="B12" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
       <c r="K12" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="90"/>
-      <c r="M12" s="91"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="81"/>
     </row>
     <row r="13" spans="1:16" s="21" customFormat="1" ht="22" customHeight="1">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61" t="s">
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
       <c r="K13" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="90"/>
-      <c r="M13" s="91"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
     </row>
     <row r="14" spans="1:16" s="21" customFormat="1" ht="22" customHeight="1">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63" t="s">
+      <c r="A14" s="74"/>
+      <c r="B14" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="73" t="s">
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
       <c r="K14" s="41"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="93"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="83"/>
     </row>
     <row r="15" spans="1:16" ht="19.25" customHeight="1" thickBot="1">
       <c r="A15" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="52"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="86"/>
     </row>
     <row r="16" spans="1:16" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="55" t="s">
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="54" t="s">
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="56"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:E4"/>
@@ -2354,18 +2366,6 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="L10:M14"/>
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R01 吹膜工序生产指令.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R01 吹膜工序生产指令.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CE2C9C9F-3A9F-D941-9999-6A0BC6357CB8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DE621965-6592-5947-8F60-7E08643C1B41}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="27980" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-吹膜生产指令" sheetId="1" r:id="rId1"/>
@@ -1351,7 +1351,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1502,6 +1502,48 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1574,18 +1616,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1604,35 +1634,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1978,7 +1984,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F5" sqref="F1:F1048576"/>
+      <selection activeCell="L7" sqref="L7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" outlineLevelCol="1"/>
@@ -2022,33 +2028,33 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="33.25" customHeight="1" thickBot="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
     </row>
     <row r="3" spans="1:16" ht="28.75" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
       <c r="I3" s="49" t="s">
         <v>39</v>
       </c>
@@ -2062,18 +2068,18 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="28.75" customHeight="1" thickBot="1">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
       <c r="I4" s="46" t="s">
         <v>38</v>
       </c>
@@ -2086,12 +2092,12 @@
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="75"/>
       <c r="F5" s="7" t="s">
         <v>3</v>
       </c>
@@ -2110,10 +2116,10 @@
       <c r="K5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="62" t="s">
+      <c r="L5" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="63"/>
+      <c r="M5" s="77"/>
       <c r="P5" s="5">
         <f>G8/2500</f>
         <v>0</v>
@@ -2148,17 +2154,17 @@
       <c r="I7" s="17"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="20"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="95"/>
     </row>
     <row r="8" spans="1:16" s="30" customFormat="1" ht="19.25" customHeight="1" thickBot="1">
       <c r="A8" s="26"/>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
@@ -2172,184 +2178,173 @@
       <c r="A9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70" t="s">
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="71"/>
+      <c r="G9" s="85"/>
       <c r="H9" s="32" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="70" t="s">
+      <c r="J9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="71"/>
-      <c r="L9" s="72" t="s">
+      <c r="K9" s="85"/>
+      <c r="L9" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="73"/>
+      <c r="M9" s="87"/>
     </row>
     <row r="10" spans="1:16" s="30" customFormat="1" ht="24" customHeight="1">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="34"/>
       <c r="I10" s="35"/>
       <c r="J10" s="36"/>
       <c r="K10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="78"/>
-      <c r="M10" s="79"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="89"/>
     </row>
     <row r="11" spans="1:16" s="30" customFormat="1" ht="23" customHeight="1">
-      <c r="A11" s="74"/>
-      <c r="B11" s="75" t="s">
+      <c r="A11" s="62"/>
+      <c r="B11" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="77"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="38"/>
       <c r="I11" s="35"/>
       <c r="J11" s="36"/>
       <c r="K11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="80"/>
-      <c r="M11" s="81"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="91"/>
     </row>
     <row r="12" spans="1:16" s="30" customFormat="1" ht="22" customHeight="1">
-      <c r="A12" s="74"/>
-      <c r="B12" s="91" t="s">
+      <c r="A12" s="62"/>
+      <c r="B12" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
       <c r="K12" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="80"/>
-      <c r="M12" s="81"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="91"/>
     </row>
     <row r="13" spans="1:16" s="21" customFormat="1" ht="22" customHeight="1">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="92" t="s">
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
       <c r="K13" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="91"/>
     </row>
     <row r="14" spans="1:16" s="21" customFormat="1" ht="22" customHeight="1">
-      <c r="A14" s="74"/>
-      <c r="B14" s="93" t="s">
+      <c r="A14" s="62"/>
+      <c r="B14" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="59" t="s">
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
       <c r="K14" s="41"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="83"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="93"/>
     </row>
     <row r="15" spans="1:16" ht="19.25" customHeight="1" thickBot="1">
       <c r="A15" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="86"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="52"/>
     </row>
     <row r="16" spans="1:16" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="88" t="s">
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="90"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:E14"/>
+  <mergeCells count="29">
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:E4"/>
@@ -2366,6 +2361,18 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="L10:M14"/>
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R01 吹膜工序生产指令.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R01 吹膜工序生产指令.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DE621965-6592-5947-8F60-7E08643C1B41}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6571AB46-FC1E-F04D-8A5E-C9F1DAB1677E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1207,19 +1207,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1269,8 +1256,79 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1278,18 +1336,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1298,49 +1347,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1351,7 +1365,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1409,28 +1423,22 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1439,9 +1447,6 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1463,7 +1468,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1475,7 +1480,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1502,26 +1507,68 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1529,8 +1576,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1538,107 +1594,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1981,10 +1977,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7:M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" outlineLevelCol="1"/>
@@ -2001,20 +1997,19 @@
     <col min="10" max="10" width="12.33203125" style="5" customWidth="1"/>
     <col min="11" max="11" width="12.5" style="5" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="3.6640625" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="16" width="0" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9" style="5" collapsed="1"/>
-    <col min="18" max="16384" width="9" style="5"/>
+    <col min="13" max="13" width="3.6640625" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="15" width="0" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="9" style="5" collapsed="1"/>
+    <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="16.75" customHeight="1">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="16.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
@@ -2022,82 +2017,78 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="33.25" customHeight="1" thickBot="1">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:15" ht="33.25" customHeight="1" thickBot="1">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
     </row>
-    <row r="3" spans="1:16" ht="28.75" customHeight="1">
-      <c r="A3" s="65" t="s">
+    <row r="3" spans="1:15" ht="28.75" customHeight="1">
+      <c r="A3" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="49" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="P3" s="5">
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="45"/>
+      <c r="O3" s="5">
         <f>2500*5.3</f>
         <v>13250</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="28.75" customHeight="1" thickBot="1">
-      <c r="A4" s="68" t="s">
+    <row r="4" spans="1:15" ht="28.75" customHeight="1" thickBot="1">
+      <c r="A4" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="46" t="s">
+      <c r="G4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="45"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="42"/>
     </row>
-    <row r="5" spans="1:16" ht="40" customHeight="1">
+    <row r="5" spans="1:15" ht="40" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="7" t="s">
         <v>3</v>
       </c>
@@ -2116,16 +2107,15 @@
       <c r="K5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="76" t="s">
+      <c r="L5" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="P5" s="5">
+      <c r="O5" s="5">
         <f>G8/2500</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="21" customFormat="1" ht="19.25" hidden="1" customHeight="1">
+    <row r="6" spans="1:15" s="19" customFormat="1" ht="19.25" hidden="1" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -2137,234 +2127,206 @@
       <c r="I6" s="17"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="20"/>
+      <c r="L6" s="80"/>
     </row>
-    <row r="7" spans="1:16" s="21" customFormat="1" ht="17.5" customHeight="1">
+    <row r="7" spans="1:15" s="19" customFormat="1" ht="17.5" customHeight="1">
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="16"/>
       <c r="H7" s="14"/>
       <c r="I7" s="17"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="95"/>
+      <c r="L7" s="81"/>
     </row>
-    <row r="8" spans="1:16" s="30" customFormat="1" ht="19.25" customHeight="1" thickBot="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="78" t="s">
+    <row r="8" spans="1:15" s="27" customFormat="1" ht="19.25" customHeight="1" thickBot="1">
+      <c r="A8" s="24"/>
+      <c r="B8" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="29"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="82"/>
     </row>
-    <row r="9" spans="1:16" s="30" customFormat="1" ht="19.25" customHeight="1">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:15" s="27" customFormat="1" ht="19.25" customHeight="1">
+      <c r="A9" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84" t="s">
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="32" t="s">
+      <c r="G9" s="66"/>
+      <c r="H9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="84" t="s">
+      <c r="J9" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="85"/>
-      <c r="L9" s="86" t="s">
+      <c r="K9" s="66"/>
+      <c r="L9" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="87"/>
     </row>
-    <row r="10" spans="1:16" s="30" customFormat="1" ht="24" customHeight="1">
-      <c r="A10" s="62" t="s">
+    <row r="10" spans="1:15" s="27" customFormat="1" ht="24" customHeight="1">
+      <c r="A10" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="37" t="s">
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="88"/>
-      <c r="M10" s="89"/>
+      <c r="L10" s="85"/>
     </row>
-    <row r="11" spans="1:16" s="30" customFormat="1" ht="23" customHeight="1">
-      <c r="A11" s="62"/>
-      <c r="B11" s="57" t="s">
+    <row r="11" spans="1:15" s="27" customFormat="1" ht="23" customHeight="1">
+      <c r="A11" s="67"/>
+      <c r="B11" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37" t="s">
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="90"/>
-      <c r="M11" s="91"/>
+      <c r="L11" s="86"/>
     </row>
-    <row r="12" spans="1:16" s="30" customFormat="1" ht="22" customHeight="1">
-      <c r="A12" s="62"/>
-      <c r="B12" s="60" t="s">
+    <row r="12" spans="1:15" s="27" customFormat="1" ht="22" customHeight="1">
+      <c r="A12" s="67"/>
+      <c r="B12" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="37" t="s">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="90"/>
-      <c r="M12" s="91"/>
+      <c r="L12" s="86"/>
     </row>
-    <row r="13" spans="1:16" s="21" customFormat="1" ht="22" customHeight="1">
-      <c r="A13" s="62" t="s">
+    <row r="13" spans="1:15" s="19" customFormat="1" ht="22" customHeight="1">
+      <c r="A13" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61" t="s">
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="37" t="s">
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="90"/>
-      <c r="M13" s="91"/>
+      <c r="L13" s="86"/>
     </row>
-    <row r="14" spans="1:16" s="21" customFormat="1" ht="22" customHeight="1">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63" t="s">
+    <row r="14" spans="1:15" s="19" customFormat="1" ht="22" customHeight="1">
+      <c r="A14" s="67"/>
+      <c r="B14" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="73" t="s">
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="93"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="87"/>
     </row>
-    <row r="15" spans="1:16" ht="19.25" customHeight="1" thickBot="1">
-      <c r="A15" s="42" t="s">
+    <row r="15" spans="1:15" ht="19.25" customHeight="1" thickBot="1">
+      <c r="A15" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="52"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="79"/>
     </row>
-    <row r="16" spans="1:16" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A16" s="53" t="s">
+    <row r="16" spans="1:15" ht="60.75" customHeight="1" thickBot="1">
+      <c r="A16" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="55" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="54" t="s">
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="56"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="89"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="L10:M14"/>
-    <mergeCell ref="B15:M15"/>
+  <mergeCells count="25">
+    <mergeCell ref="L10:L14"/>
+    <mergeCell ref="I16:L16"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:M16"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B12:E12"/>
@@ -2373,6 +2335,19 @@
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R01 吹膜工序生产指令.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R01 吹膜工序生产指令.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/A/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mitcpro\mySystem\mySystem\xls\Extrusion\A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6571AB46-FC1E-F04D-8A5E-C9F1DAB1677E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="465" windowWidth="27945" windowHeight="17535"/>
   </bookViews>
   <sheets>
     <sheet name="01-吹膜生产指令" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'01-吹膜生产指令'!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -697,99 +696,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">审批人：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日期：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>产品名称：药品包装用聚乙烯膜（    ）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -848,23 +754,28 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  审批人：
+  日期：       年           月        日</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="166" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -878,7 +789,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -970,11 +881,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1365,7 +1299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1387,19 +1321,16 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1414,13 +1345,13 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1441,10 +1372,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1459,9 +1390,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1471,10 +1399,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1489,10 +1414,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1507,6 +1432,90 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1534,111 +1543,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1654,7 +1585,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1729,23 +1660,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1781,23 +1695,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1973,43 +1870,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="F16" sqref="F16:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="0.1640625" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="8.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="0.125" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="1" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="0.1640625" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="12.83203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20" style="5" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="5" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="3.6640625" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="0.125" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="13.125" style="5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="22.875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.75" style="5" customWidth="1"/>
+    <col min="12" max="12" width="16.625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="3.625" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="14" max="15" width="0" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="16" max="16" width="9" style="5" collapsed="1"/>
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="16.75" customHeight="1">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
@@ -2018,96 +1915,96 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="33.25" customHeight="1" thickBot="1">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:15" ht="33.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
     </row>
-    <row r="3" spans="1:15" ht="28.75" customHeight="1">
-      <c r="A3" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="45"/>
+    <row r="3" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="42"/>
       <c r="O3" s="5">
         <f>2500*5.3</f>
         <v>13250</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="28.75" customHeight="1" thickBot="1">
-      <c r="A4" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53" t="s">
+    <row r="4" spans="1:15" ht="28.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="39"/>
     </row>
-    <row r="5" spans="1:15" ht="40" customHeight="1">
+    <row r="5" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="7" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="83" t="s">
+      <c r="L5" s="46" t="s">
         <v>9</v>
       </c>
       <c r="O5" s="5">
@@ -2115,214 +2012,223 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="19" customFormat="1" ht="19.25" hidden="1" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="80"/>
+    <row r="6" spans="1:15" s="18" customFormat="1" ht="19.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="44"/>
     </row>
-    <row r="7" spans="1:15" s="19" customFormat="1" ht="17.5" customHeight="1">
-      <c r="A7" s="12">
+    <row r="7" spans="1:15" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11">
         <v>1</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="81"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="48"/>
     </row>
-    <row r="8" spans="1:15" s="27" customFormat="1" ht="19.25" customHeight="1" thickBot="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="59" t="s">
+    <row r="8" spans="1:15" s="26" customFormat="1" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23"/>
+      <c r="B8" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="82"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="45"/>
     </row>
-    <row r="9" spans="1:15" s="27" customFormat="1" ht="19.25" customHeight="1">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:15" s="26" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65" t="s">
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="29" t="s">
+      <c r="G9" s="68"/>
+      <c r="H9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="65" t="s">
+      <c r="J9" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="66"/>
-      <c r="L9" s="84" t="s">
+      <c r="K9" s="68"/>
+      <c r="L9" s="47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="27" customFormat="1" ht="24" customHeight="1">
-      <c r="A10" s="67" t="s">
+    <row r="10" spans="1:15" s="26" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="85"/>
+      <c r="L10" s="69"/>
     </row>
-    <row r="11" spans="1:15" s="27" customFormat="1" ht="23" customHeight="1">
-      <c r="A11" s="67"/>
-      <c r="B11" s="68" t="s">
+    <row r="11" spans="1:15" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="58"/>
+      <c r="B11" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34" t="s">
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="86"/>
+      <c r="L11" s="70"/>
     </row>
-    <row r="12" spans="1:15" s="27" customFormat="1" ht="22" customHeight="1">
-      <c r="A12" s="67"/>
-      <c r="B12" s="74" t="s">
+    <row r="12" spans="1:15" s="26" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="58"/>
+      <c r="B12" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="34" t="s">
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="86"/>
+      <c r="L12" s="70"/>
     </row>
-    <row r="13" spans="1:15" s="19" customFormat="1" ht="22" customHeight="1">
-      <c r="A13" s="67" t="s">
+    <row r="13" spans="1:15" s="18" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="75" t="s">
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="34" t="s">
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="86"/>
+      <c r="L13" s="70"/>
     </row>
-    <row r="14" spans="1:15" s="19" customFormat="1" ht="22" customHeight="1">
-      <c r="A14" s="67"/>
-      <c r="B14" s="76" t="s">
+    <row r="14" spans="1:15" s="18" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="58"/>
+      <c r="B14" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="56" t="s">
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="87"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="71"/>
     </row>
-    <row r="15" spans="1:15" ht="19.25" customHeight="1" thickBot="1">
-      <c r="A15" s="39" t="s">
+    <row r="15" spans="1:15" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="79"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="87"/>
     </row>
-    <row r="16" spans="1:15" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A16" s="71" t="s">
+    <row r="16" spans="1:15" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="88" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="89"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="L10:L14"/>
     <mergeCell ref="I16:L16"/>
     <mergeCell ref="A16:E16"/>
@@ -2339,15 +2245,7 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B15:L15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R01 吹膜工序生产指令.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R01 吹膜工序生产指令.xlsx
@@ -180,10 +180,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>计划产量（卷）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>卷心管
 规格mm</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -759,6 +755,10 @@
   <si>
     <t xml:space="preserve">  审批人：
   日期：       年           月        日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划产量（卷）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1299,7 +1299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1327,9 +1327,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1366,9 +1363,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1447,6 +1441,81 @@
     <xf numFmtId="178" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1459,6 +1528,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1483,89 +1555,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1877,7 +1871,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:H16"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -1902,11 +1896,11 @@
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+        <v>30</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
@@ -1915,78 +1909,78 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="33.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="42"/>
+      <c r="A3" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="40"/>
       <c r="O3" s="5">
         <f>2500*5.3</f>
         <v>13250</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="28.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="39"/>
+      <c r="A4" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="83" t="s">
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="47" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -1999,237 +1993,227 @@
         <v>6</v>
       </c>
       <c r="J5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="L5" s="44" t="s">
         <v>8</v>
-      </c>
-      <c r="L5" s="46" t="s">
-        <v>9</v>
       </c>
       <c r="O5" s="5">
         <f>G8/2500</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="18" customFormat="1" ht="19.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="44"/>
+    <row r="6" spans="1:15" s="17" customFormat="1" ht="19.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="42"/>
     </row>
-    <row r="7" spans="1:15" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
+    <row r="7" spans="1:15" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
         <v>1</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="48"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="46"/>
     </row>
-    <row r="8" spans="1:15" s="26" customFormat="1" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
+    <row r="8" spans="1:15" s="24" customFormat="1" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
       <c r="B8" s="61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="62"/>
       <c r="D8" s="62"/>
       <c r="E8" s="63"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="45"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="43"/>
     </row>
-    <row r="9" spans="1:15" s="26" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:15" s="24" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="64" t="s">
         <v>11</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>12</v>
       </c>
       <c r="C9" s="65"/>
       <c r="D9" s="65"/>
       <c r="E9" s="66"/>
       <c r="F9" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="68"/>
+      <c r="H9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="68"/>
-      <c r="H9" s="28" t="s">
+      <c r="I9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="J9" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="67" t="s">
+      <c r="K9" s="68"/>
+      <c r="L9" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="68"/>
-      <c r="L9" s="47" t="s">
+    </row>
+    <row r="10" spans="1:15" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="82" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" s="26" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="58" t="s">
+      <c r="B10" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="30" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32" t="s">
-        <v>20</v>
       </c>
       <c r="L10" s="69"/>
     </row>
-    <row r="11" spans="1:15" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="58"/>
-      <c r="B11" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32" t="s">
+    <row r="11" spans="1:15" s="24" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="82"/>
+      <c r="B11" s="77" t="s">
         <v>20</v>
+      </c>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="L11" s="70"/>
     </row>
-    <row r="12" spans="1:15" s="26" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="58"/>
-      <c r="B12" s="56" t="s">
+    <row r="12" spans="1:15" s="24" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="82"/>
+      <c r="B12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="30" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="32" t="s">
-        <v>23</v>
       </c>
       <c r="L12" s="70"/>
     </row>
-    <row r="13" spans="1:15" s="18" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="58" t="s">
+    <row r="13" spans="1:15" s="17" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57" t="s">
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="30" t="s">
         <v>26</v>
-      </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="32" t="s">
-        <v>27</v>
       </c>
       <c r="L13" s="70"/>
     </row>
-    <row r="14" spans="1:15" s="18" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59" t="s">
+    <row r="14" spans="1:15" s="17" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="82"/>
+      <c r="B14" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="35"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="33"/>
       <c r="L14" s="71"/>
     </row>
     <row r="15" spans="1:15" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="87"/>
+      <c r="A15" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="88" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="49" t="s">
+      <c r="A16" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="50"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L10:L14"/>
     <mergeCell ref="I16:L16"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="F16:H16"/>
@@ -2246,6 +2230,16 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="B15:L15"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L10:L14"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
